--- a/workspace/pasted.xlsx
+++ b/workspace/pasted.xlsx
@@ -13,13 +13,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +45,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -52,6 +56,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -68,7 +75,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
@@ -93,7 +100,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="2" name="Image 2"/>
@@ -118,7 +125,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="3" name="Image 3"/>
@@ -143,7 +150,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="4" name="Image 4"/>
@@ -168,7 +175,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="5" name="Image 5"/>
@@ -193,7 +200,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="6" name="Image 6"/>
@@ -218,7 +225,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="7" name="Image 7"/>
@@ -243,7 +250,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="8" name="Image 8"/>
@@ -268,7 +275,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="9" name="Image 9"/>
@@ -293,7 +300,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="10" name="Image 10"/>
@@ -318,7 +325,7 @@
       <row>20</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="11" name="Image 11"/>
@@ -343,7 +350,7 @@
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3457575" cy="762000"/>
+    <ext cx="1504950" cy="1009650"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="12" name="Image 12"/>
@@ -665,7 +672,7 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="79.5" r="1" s="3">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -683,7 +690,7 @@
     </row>
     <row r="2"/>
     <row customHeight="1" ht="79.5" r="3" s="3">
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -701,7 +708,7 @@
     </row>
     <row r="4"/>
     <row customHeight="1" ht="79.5" r="5" s="3">
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -723,7 +730,7 @@
       <c r="D6" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="79.5" r="7" s="3">
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -745,7 +752,7 @@
       <c r="D8" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="79.5" r="9" s="3">
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -763,7 +770,7 @@
     </row>
     <row r="10"/>
     <row customHeight="1" ht="79.5" r="11" s="3">
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -781,7 +788,7 @@
     </row>
     <row r="12"/>
     <row customHeight="1" ht="79.5" r="13" s="3">
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -799,7 +806,7 @@
     </row>
     <row r="14"/>
     <row customHeight="1" ht="79.5" r="15" s="3">
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -817,7 +824,7 @@
     </row>
     <row r="16"/>
     <row customHeight="1" ht="79.5" r="17" s="3">
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -835,7 +842,7 @@
     </row>
     <row r="18"/>
     <row customHeight="1" ht="79.5" r="19" s="3">
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -853,7 +860,7 @@
     </row>
     <row r="20"/>
     <row customHeight="1" ht="79.5" r="21" s="3">
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
@@ -871,7 +878,7 @@
     </row>
     <row r="22"/>
     <row customHeight="1" ht="79.5" r="23" s="3">
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>photo</t>
         </is>
